--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_20.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_20.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998481120736751</v>
+        <v>0.9298005445013579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8280957780952378</v>
+        <v>0.7557768015839236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8176576444684366</v>
+        <v>0.6958355170437285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9987577987602856</v>
+        <v>0.8952501866206102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006322375482540821</v>
+        <v>0.2922071076162178</v>
       </c>
       <c r="G2" t="n">
-        <v>1.149524323423304</v>
+        <v>1.633121652352729</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6522280329191525</v>
+        <v>1.087978719064533</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002869297188762281</v>
+        <v>0.3404223307654675</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04738243851396046</v>
+        <v>1.446414558803151</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02514433431717933</v>
+        <v>0.5405618443954565</v>
       </c>
       <c r="L2" t="n">
-        <v>1.009720827284795</v>
+        <v>0.9044092520869553</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02554033244756202</v>
+        <v>0.5490751530810862</v>
       </c>
       <c r="N2" t="n">
-        <v>144.7324907338945</v>
+        <v>36.46058491094111</v>
       </c>
       <c r="O2" t="n">
-        <v>286.067663277111</v>
+        <v>73.42516849916693</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998476679107708</v>
+        <v>0.9297992346515879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8280649602389858</v>
+        <v>0.7557643809278476</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8175416745885498</v>
+        <v>0.6956929908927671</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9987544217892649</v>
+        <v>0.8953519314934405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0006340863882006511</v>
+        <v>0.2922125599008544</v>
       </c>
       <c r="G3" t="n">
-        <v>1.149730402569964</v>
+        <v>1.633204709337102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6526428504551876</v>
+        <v>1.088488526842381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00287709748161871</v>
+        <v>0.3400916740737283</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04736181840620833</v>
+        <v>1.447411603486568</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02518107202246662</v>
+        <v>0.5405668875364587</v>
       </c>
       <c r="L3" t="n">
-        <v>1.009749253710666</v>
+        <v>0.9044074684617367</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02557764873498335</v>
+        <v>0.549080275646518</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7266507076358</v>
+        <v>36.46054759334254</v>
       </c>
       <c r="O3" t="n">
-        <v>286.0618232508522</v>
+        <v>73.42513118156836</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998522677293427</v>
+        <v>0.9297532266257602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8280270433044702</v>
+        <v>0.7556421267673796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.817542266216886</v>
+        <v>0.6937288678838615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9988088249432234</v>
+        <v>0.8967112138683281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006149395205949535</v>
+        <v>0.2924040695366303</v>
       </c>
       <c r="G4" t="n">
-        <v>1.149983953285661</v>
+        <v>1.63402222347108</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6526407342349335</v>
+        <v>1.095514080958841</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002751434415343795</v>
+        <v>0.3356741953279503</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0480849725627606</v>
+        <v>1.461363510364496</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02479797412279789</v>
+        <v>0.540743996301975</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00945486532207</v>
+        <v>0.9043448192350777</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02518851742635224</v>
+        <v>0.5492601736980472</v>
       </c>
       <c r="N4" t="n">
-        <v>144.787973270979</v>
+        <v>36.45923726699886</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1231458141954</v>
+        <v>73.42382085522468</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998622598772099</v>
+        <v>0.9297471448290004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.827982867635441</v>
+        <v>0.7554060864994028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8175605637759309</v>
+        <v>0.6935689731978227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9989173442630741</v>
+        <v>0.8968185401064318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000573346938338798</v>
+        <v>0.2924293851780077</v>
       </c>
       <c r="G5" t="n">
-        <v>1.15027935618787</v>
+        <v>1.635600625829906</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6525752849271833</v>
+        <v>1.096086014979575</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002500771181868384</v>
+        <v>0.335325399975015</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05082009252202867</v>
+        <v>1.46251689154461</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02394466408907834</v>
+        <v>0.5407674039529451</v>
       </c>
       <c r="L5" t="n">
-        <v>1.008815367858567</v>
+        <v>0.90433653763949</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0243217686125987</v>
+        <v>0.5492839499961211</v>
       </c>
       <c r="N5" t="n">
-        <v>144.9280390948915</v>
+        <v>36.45906411930227</v>
       </c>
       <c r="O5" t="n">
-        <v>286.2632116381079</v>
+        <v>73.42364770752809</v>
       </c>
     </row>
     <row r="6">
@@ -708,242 +708,242 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998683213722707</v>
+        <v>0.9297263116512929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8278935396541561</v>
+        <v>0.7553590873468404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8175126603545446</v>
+        <v>0.693081743457954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989900830799665</v>
+        <v>0.897142126525498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000548115803325748</v>
+        <v>0.292516103836395</v>
       </c>
       <c r="G6" t="n">
-        <v>1.150876692810039</v>
+        <v>1.635914909379502</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6527466326878824</v>
+        <v>1.097828807507882</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002332755504415647</v>
+        <v>0.334273789099265</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04838577856646524</v>
+        <v>1.466051757586758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02341187312723499</v>
+        <v>0.5408475791166999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.008427432174678</v>
+        <v>0.9043081690570798</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02378058672570189</v>
+        <v>0.5493653878385593</v>
       </c>
       <c r="N6" t="n">
-        <v>145.0180479468073</v>
+        <v>36.45847111594964</v>
       </c>
       <c r="O6" t="n">
-        <v>286.3532204900238</v>
+        <v>73.42305470417546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_4</t>
+          <t>model_1_20_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999879045181027</v>
+        <v>0.9293570336278806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8276968940479222</v>
+        <v>0.7549108206732895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.817446902263783</v>
+        <v>0.6885650608972955</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991242632228173</v>
+        <v>0.8999111186467068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005034776630855667</v>
+        <v>0.2940532334674024</v>
       </c>
       <c r="G7" t="n">
-        <v>1.152191662884395</v>
+        <v>1.638912470689615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6529818455656631</v>
+        <v>1.113984719135055</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002022819646713398</v>
+        <v>0.3252749496611548</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05299557495799852</v>
+        <v>1.500346166651363</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02243830793722126</v>
+        <v>0.5422667548978108</v>
       </c>
       <c r="L7" t="n">
-        <v>1.007741108414272</v>
+        <v>0.9038053223869013</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02279168885715359</v>
+        <v>0.5508069142195674</v>
       </c>
       <c r="N7" t="n">
-        <v>145.1879424201512</v>
+        <v>36.44798892363662</v>
       </c>
       <c r="O7" t="n">
-        <v>286.5231149633676</v>
+        <v>73.41257251186244</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_2</t>
+          <t>model_1_20_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998818353216972</v>
+        <v>0.9294241862599106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8276330387682674</v>
+        <v>0.7548989810693528</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8174963201856671</v>
+        <v>0.6891506468979747</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9991546535945239</v>
+        <v>0.8995762196455274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004918636280584161</v>
+        <v>0.2937737088438147</v>
       </c>
       <c r="G8" t="n">
-        <v>1.152618663433473</v>
+        <v>1.638991642175656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6528050805244998</v>
+        <v>1.111890111964853</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001952622479527208</v>
+        <v>0.3263633248560551</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05069670576397362</v>
+        <v>1.495730262401568</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02217799873880455</v>
+        <v>0.5420089564239826</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007562539411381</v>
+        <v>0.9038967642688145</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02252728004907554</v>
+        <v>0.5505450556774804</v>
       </c>
       <c r="N8" t="n">
-        <v>145.2346181172723</v>
+        <v>36.44989101164611</v>
       </c>
       <c r="O8" t="n">
-        <v>286.5697906604887</v>
+        <v>73.41447459987194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_3</t>
+          <t>model_1_20_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998794891154614</v>
+        <v>0.9294026518508789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8276314615327313</v>
+        <v>0.7548910541094694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8174524221748251</v>
+        <v>0.6889569536783475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991304156949687</v>
+        <v>0.8996879290243911</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005016297741507643</v>
+        <v>0.2938633463963101</v>
       </c>
       <c r="G9" t="n">
-        <v>1.152629210414766</v>
+        <v>1.639044649792896</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6529621011639287</v>
+        <v>1.112582941380481</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002008608365575149</v>
+        <v>0.3260002849050107</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05117285745097726</v>
+        <v>1.497252139927175</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02239709298437555</v>
+        <v>0.542091640219908</v>
       </c>
       <c r="L9" t="n">
-        <v>1.007712696610469</v>
+        <v>0.9038674408182181</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02274982481000039</v>
+        <v>0.5506290416605381</v>
       </c>
       <c r="N9" t="n">
-        <v>145.1952964241048</v>
+        <v>36.44928085575215</v>
       </c>
       <c r="O9" t="n">
-        <v>286.5304689673212</v>
+        <v>73.41386444397797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_1</t>
+          <t>model_1_20_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998934509928246</v>
+        <v>0.9295691787033817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8275203138583263</v>
+        <v>0.7548380950291199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8176143241459389</v>
+        <v>0.6906539804574192</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992832602034766</v>
+        <v>0.8986831841405623</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004435130868887249</v>
+        <v>0.2931701739270274</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1533724554253</v>
+        <v>1.639398787407048</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6523829872008701</v>
+        <v>1.106512774991008</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001655560643065732</v>
+        <v>0.3292655660939984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04664766891422267</v>
+        <v>1.48412394513759</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02105975039948776</v>
+        <v>0.5414519128482486</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006819136459228</v>
+        <v>0.9040942007875836</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02139142041625275</v>
+        <v>0.5499792392222678</v>
       </c>
       <c r="N10" t="n">
-        <v>145.4415664968909</v>
+        <v>36.45400408035483</v>
       </c>
       <c r="O10" t="n">
-        <v>286.7767390401073</v>
+        <v>73.41858766858066</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998931414624861</v>
+        <v>0.9290385659002147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8271027319840054</v>
+        <v>0.7544007997860774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8174369463820763</v>
+        <v>0.6863177470464181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993161378662755</v>
+        <v>0.9011241281670352</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004448015151862442</v>
+        <v>0.2953788638858915</v>
       </c>
       <c r="G11" t="n">
-        <v>1.156164827341672</v>
+        <v>1.642322982710832</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6530174571772527</v>
+        <v>1.122023230472899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001579618209242667</v>
+        <v>0.3213328373572855</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04655257132789185</v>
+        <v>1.518622163388985</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0210903180437433</v>
+        <v>0.5434876851280914</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00683894640089</v>
+        <v>0.9033716642045477</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02142246947034888</v>
+        <v>0.5520470728804925</v>
       </c>
       <c r="N11" t="n">
-        <v>145.4357648171796</v>
+        <v>36.43899292454221</v>
       </c>
       <c r="O11" t="n">
-        <v>286.770937360396</v>
+        <v>73.40357651276804</v>
       </c>
     </row>
   </sheetData>
